--- a/Documentação/Planilha de Requisitos.xlsx
+++ b/Documentação/Planilha de Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21506"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\BandTec\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Nova pasta\PaIoTnela\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D730CABC-2126-45D6-8FB1-F4265D1FFDDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B9C86E72-1E9D-4375-8A3E-322A49C57E36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD860BF-3450-4F07-A448-F5BFB1F58E0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="7680" firstSheet="1" xr2:uid="{C44AAED9-2517-4327-A999-2D23931D2AB0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="7680" firstSheet="1" activeTab="1" xr2:uid="{C44AAED9-2517-4327-A999-2D23931D2AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="WhatsApp" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>Código</t>
   </si>
@@ -143,13 +142,19 @@
   </si>
   <si>
     <t>Publicado e acessado em nuvem</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +162,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -280,17 +305,62 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -298,10 +368,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,17 +398,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -378,6 +479,32 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -467,16 +594,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2362200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605366</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76445</xdr:rowOff>
+      <xdr:rowOff>57395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -505,7 +632,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="19050"/>
+          <a:off x="6263216" y="0"/>
           <a:ext cx="1295400" cy="438395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -519,7 +646,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1D46D19-B6BB-40DE-BCBA-61B2666E6FA2}" name="Tabela1" displayName="Tabela1" ref="A4:D34" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1D46D19-B6BB-40DE-BCBA-61B2666E6FA2}" name="Tabela1" displayName="Tabela1" ref="A4:D34" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A4:D34" xr:uid="{0A5B7F41-EDEB-4E0D-B9BF-F494E7890D37}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{821797F5-A334-4DA1-8EC2-2FA41980652A}" name="Código"/>
@@ -532,20 +659,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BEA7EB84-7466-4538-84AD-3A9F8368E9CD}" name="Tabela14" displayName="Tabela14" ref="A4:D34" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="A4:D34" xr:uid="{BED95E7A-33AB-432B-9FCB-00A36512379A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BEA7EB84-7466-4538-84AD-3A9F8368E9CD}" name="Tabela14" displayName="Tabela14" ref="A7:D37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A7:D37" xr:uid="{BED95E7A-33AB-432B-9FCB-00A36512379A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{765AE35C-70E7-4DAD-A070-609FCD478E74}" name="Código"/>
     <tableColumn id="2" xr3:uid="{DE94CB35-6E84-4B7B-8827-7E5AF580A41F}" name="Descrição Requisito"/>
     <tableColumn id="3" xr3:uid="{40B07A4A-B53E-4A1F-8C2E-A549F60CF03B}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{7D7BE58A-0B79-41A2-B287-88A3874AE1D6}" name="Prioridade"/>
+    <tableColumn id="4" xr3:uid="{7D7BE58A-0B79-41A2-B287-88A3874AE1D6}" name="Prioridade" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{246E0A95-B240-4144-A6EC-8972C97A70E8}" name="Tabela146" displayName="Tabela146" ref="E7:H37" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="E7:H37" xr:uid="{F4EEE8FF-67B4-4C51-B2B5-C925DEDCBCE0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E32072BC-0891-41C5-A27C-397DD19C05C4}" name="Código" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BEA7D37C-2121-4FEF-AAE5-B0F85EAFAA67}" name="Descrição Requisito"/>
+    <tableColumn id="3" xr3:uid="{E5425E01-BD83-42AD-84F9-A4DF5E45C056}" name="Categoria"/>
+    <tableColumn id="4" xr3:uid="{C414774B-A4D2-4B06-B76A-1DAB2438B760}" name="Prioridade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,11 +983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDEE01D-B898-483C-B3D7-2EC947F69F36}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" xr3:uid="{9EEE716A-C105-5FBA-BEFF-5B9A2A21CA6B}">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -855,25 +995,25 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -901,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -915,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -929,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -943,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -957,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -971,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -985,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -999,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1013,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1027,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1041,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1055,7 +1195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1069,7 +1209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1083,7 +1223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1097,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1111,72 +1251,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1196,320 +1336,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289AB605-C255-4354-A5C1-14006B8F911F}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{4A5C267A-2A48-5A22-BFB5-60B147966E2E}">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="E7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="D20" s="20"/>
+      <c r="E20" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="D21" s="20"/>
+      <c r="E21" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="D22" s="20"/>
+      <c r="E22" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="D23" s="20"/>
+      <c r="E23" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+      <c r="D24" s="20"/>
+      <c r="E24" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+      <c r="D25" s="20"/>
+      <c r="E25" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+      <c r="D26" s="20"/>
+      <c r="E26" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+      <c r="D27" s="20"/>
+      <c r="E27" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+      <c r="D28" s="20"/>
+      <c r="E28" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+      <c r="D29" s="20"/>
+      <c r="E29" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+      <c r="D30" s="20"/>
+      <c r="E30" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+      <c r="D31" s="20"/>
+      <c r="E31" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+      <c r="D32" s="20"/>
+      <c r="E32" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+      <c r="D33" s="20"/>
+      <c r="E33" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+      <c r="D34" s="20"/>
+      <c r="E34" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+      <c r="D35" s="20"/>
+      <c r="E35" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+      <c r="D36" s="20"/>
+      <c r="E36" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>30</v>
       </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="17">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="E4:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentação/Planilha de Requisitos.xlsx
+++ b/Documentação/Planilha de Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Nova pasta\PaIoTnela\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD860BF-3450-4F07-A448-F5BFB1F58E0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32658948-AA38-4062-98AE-91AD2D0F5A6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="7680" firstSheet="1" activeTab="1" xr2:uid="{C44AAED9-2517-4327-A999-2D23931D2AB0}"/>
   </bookViews>
@@ -371,6 +371,12 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,7 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,24 +416,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -443,16 +435,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -468,10 +460,11 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thick">
           <color indexed="64"/>
-        </bottom>
+        </right>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
@@ -479,6 +472,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -659,23 +659,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BEA7EB84-7466-4538-84AD-3A9F8368E9CD}" name="Tabela14" displayName="Tabela14" ref="A7:D37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BEA7EB84-7466-4538-84AD-3A9F8368E9CD}" name="Tabela14" displayName="Tabela14" ref="A7:D37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A7:D37" xr:uid="{BED95E7A-33AB-432B-9FCB-00A36512379A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{765AE35C-70E7-4DAD-A070-609FCD478E74}" name="Código"/>
     <tableColumn id="2" xr3:uid="{DE94CB35-6E84-4B7B-8827-7E5AF580A41F}" name="Descrição Requisito"/>
     <tableColumn id="3" xr3:uid="{40B07A4A-B53E-4A1F-8C2E-A549F60CF03B}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{7D7BE58A-0B79-41A2-B287-88A3874AE1D6}" name="Prioridade" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7D7BE58A-0B79-41A2-B287-88A3874AE1D6}" name="Prioridade" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{246E0A95-B240-4144-A6EC-8972C97A70E8}" name="Tabela146" displayName="Tabela146" ref="E7:H37" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{246E0A95-B240-4144-A6EC-8972C97A70E8}" name="Tabela146" displayName="Tabela146" ref="E7:H37" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="E7:H37" xr:uid="{F4EEE8FF-67B4-4C51-B2B5-C925DEDCBCE0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E32072BC-0891-41C5-A27C-397DD19C05C4}" name="Código" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E32072BC-0891-41C5-A27C-397DD19C05C4}" name="Código" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BEA7D37C-2121-4FEF-AAE5-B0F85EAFAA67}" name="Descrição Requisito"/>
     <tableColumn id="3" xr3:uid="{E5425E01-BD83-42AD-84F9-A4DF5E45C056}" name="Categoria"/>
     <tableColumn id="4" xr3:uid="{C414774B-A4D2-4B06-B76A-1DAB2438B760}" name="Prioridade"/>
@@ -996,22 +996,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1353,68 +1353,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1426,10 +1426,10 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1452,10 +1452,10 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -1475,10 +1475,10 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="G9" t="s">
@@ -1498,10 +1498,10 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="H10" t="s">
@@ -1518,10 +1518,10 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1535,10 +1535,10 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1569,10 +1569,10 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
         <v>7</v>
       </c>
     </row>
@@ -1586,10 +1586,10 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
         <v>8</v>
       </c>
     </row>
@@ -1603,10 +1603,10 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
         <v>9</v>
       </c>
     </row>
@@ -1620,10 +1620,10 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1637,10 +1637,10 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
         <v>11</v>
       </c>
     </row>
@@ -1654,10 +1654,10 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>12</v>
       </c>
     </row>
@@ -1665,8 +1665,8 @@
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="16">
+      <c r="D20" s="7"/>
+      <c r="E20" s="3">
         <v>13</v>
       </c>
     </row>
@@ -1674,8 +1674,8 @@
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="16">
+      <c r="D21" s="7"/>
+      <c r="E21" s="3">
         <v>14</v>
       </c>
     </row>
@@ -1683,8 +1683,8 @@
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="16">
+      <c r="D22" s="7"/>
+      <c r="E22" s="3">
         <v>15</v>
       </c>
     </row>
@@ -1692,8 +1692,8 @@
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="16">
+      <c r="D23" s="7"/>
+      <c r="E23" s="3">
         <v>16</v>
       </c>
     </row>
@@ -1701,8 +1701,8 @@
       <c r="A24">
         <v>17</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="16">
+      <c r="D24" s="7"/>
+      <c r="E24" s="3">
         <v>17</v>
       </c>
     </row>
@@ -1710,8 +1710,8 @@
       <c r="A25">
         <v>18</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="16">
+      <c r="D25" s="7"/>
+      <c r="E25" s="3">
         <v>18</v>
       </c>
     </row>
@@ -1719,8 +1719,8 @@
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="16">
+      <c r="D26" s="7"/>
+      <c r="E26" s="3">
         <v>19</v>
       </c>
     </row>
@@ -1728,8 +1728,8 @@
       <c r="A27">
         <v>20</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="16">
+      <c r="D27" s="7"/>
+      <c r="E27" s="3">
         <v>20</v>
       </c>
     </row>
@@ -1737,8 +1737,8 @@
       <c r="A28">
         <v>21</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="16">
+      <c r="D28" s="7"/>
+      <c r="E28" s="3">
         <v>21</v>
       </c>
     </row>
@@ -1746,8 +1746,8 @@
       <c r="A29">
         <v>22</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="16">
+      <c r="D29" s="7"/>
+      <c r="E29" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1755,8 +1755,8 @@
       <c r="A30">
         <v>23</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="16">
+      <c r="D30" s="7"/>
+      <c r="E30" s="3">
         <v>23</v>
       </c>
     </row>
@@ -1764,8 +1764,8 @@
       <c r="A31">
         <v>24</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="16">
+      <c r="D31" s="7"/>
+      <c r="E31" s="3">
         <v>24</v>
       </c>
     </row>
@@ -1773,8 +1773,8 @@
       <c r="A32">
         <v>25</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="16">
+      <c r="D32" s="7"/>
+      <c r="E32" s="3">
         <v>25</v>
       </c>
     </row>
@@ -1782,8 +1782,8 @@
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16">
+      <c r="D33" s="7"/>
+      <c r="E33" s="3">
         <v>26</v>
       </c>
     </row>
@@ -1791,8 +1791,8 @@
       <c r="A34">
         <v>27</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16">
+      <c r="D34" s="7"/>
+      <c r="E34" s="3">
         <v>27</v>
       </c>
     </row>
@@ -1800,8 +1800,8 @@
       <c r="A35">
         <v>28</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="16">
+      <c r="D35" s="7"/>
+      <c r="E35" s="3">
         <v>28</v>
       </c>
     </row>
@@ -1809,8 +1809,8 @@
       <c r="A36">
         <v>29</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="16">
+      <c r="D36" s="7"/>
+      <c r="E36" s="3">
         <v>29</v>
       </c>
     </row>
@@ -1818,8 +1818,8 @@
       <c r="A37">
         <v>30</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="17">
+      <c r="D37" s="7"/>
+      <c r="E37" s="4">
         <v>30</v>
       </c>
     </row>
@@ -1830,10 +1830,11 @@
     <mergeCell ref="E4:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentação/Planilha de Requisitos.xlsx
+++ b/Documentação/Planilha de Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Nova pasta\PaIoTnela\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32658948-AA38-4062-98AE-91AD2D0F5A6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11839F5F-0874-441D-85EF-3A1B523A1AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="7680" firstSheet="1" activeTab="1" xr2:uid="{C44AAED9-2517-4327-A999-2D23931D2AB0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Código</t>
   </si>
@@ -108,15 +108,9 @@
     <t>Armazenamento Interno para backup local</t>
   </si>
   <si>
-    <t>Medir Temperatura</t>
-  </si>
-  <si>
     <t>Medir Umidade</t>
   </si>
   <si>
-    <t>Gerar Gráficos</t>
-  </si>
-  <si>
     <t>Ser controlada remotamente(ON/OFF)</t>
   </si>
   <si>
@@ -148,6 +142,198 @@
   </si>
   <si>
     <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>O software necessita de um banco de dados</t>
+  </si>
+  <si>
+    <t>Cadastro para utilização do sistema da panela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login para utilização da aplicação </t>
+  </si>
+  <si>
+    <t>RFS001</t>
+  </si>
+  <si>
+    <t>RFS002</t>
+  </si>
+  <si>
+    <t>RFS003</t>
+  </si>
+  <si>
+    <t>RFS004</t>
+  </si>
+  <si>
+    <t>RFS005</t>
+  </si>
+  <si>
+    <t>RFS006</t>
+  </si>
+  <si>
+    <t>RFS007</t>
+  </si>
+  <si>
+    <t>RFS008</t>
+  </si>
+  <si>
+    <t>RFS009</t>
+  </si>
+  <si>
+    <t>RFS010</t>
+  </si>
+  <si>
+    <t>RFS011</t>
+  </si>
+  <si>
+    <t>RFS012</t>
+  </si>
+  <si>
+    <t>RFS013</t>
+  </si>
+  <si>
+    <t>RFS014</t>
+  </si>
+  <si>
+    <t>RFS015</t>
+  </si>
+  <si>
+    <t>RFS016</t>
+  </si>
+  <si>
+    <t>RFS017</t>
+  </si>
+  <si>
+    <t>RFS018</t>
+  </si>
+  <si>
+    <t>RFS019</t>
+  </si>
+  <si>
+    <t>RFS020</t>
+  </si>
+  <si>
+    <t>RFS021</t>
+  </si>
+  <si>
+    <t>RFS022</t>
+  </si>
+  <si>
+    <t>RFS023</t>
+  </si>
+  <si>
+    <t>RFS024</t>
+  </si>
+  <si>
+    <t>RFS025</t>
+  </si>
+  <si>
+    <t>RFS026</t>
+  </si>
+  <si>
+    <t>RFH001</t>
+  </si>
+  <si>
+    <t>RFH002</t>
+  </si>
+  <si>
+    <t>RFH003</t>
+  </si>
+  <si>
+    <t>RFH004</t>
+  </si>
+  <si>
+    <t>RFH005</t>
+  </si>
+  <si>
+    <t>RFH006</t>
+  </si>
+  <si>
+    <t>RFH007</t>
+  </si>
+  <si>
+    <t>RFH008</t>
+  </si>
+  <si>
+    <t>RFH009</t>
+  </si>
+  <si>
+    <t>RFH010</t>
+  </si>
+  <si>
+    <t>RFH011</t>
+  </si>
+  <si>
+    <t>RFH012</t>
+  </si>
+  <si>
+    <t>RFH013</t>
+  </si>
+  <si>
+    <t>RFH014</t>
+  </si>
+  <si>
+    <t>RFH015</t>
+  </si>
+  <si>
+    <t>RFH016</t>
+  </si>
+  <si>
+    <t>RFH017</t>
+  </si>
+  <si>
+    <t>RFH018</t>
+  </si>
+  <si>
+    <t>RFH019</t>
+  </si>
+  <si>
+    <t>RFH020</t>
+  </si>
+  <si>
+    <t>RFH021</t>
+  </si>
+  <si>
+    <t>RFH022</t>
+  </si>
+  <si>
+    <t>RFH023</t>
+  </si>
+  <si>
+    <t>RFH024</t>
+  </si>
+  <si>
+    <t>RFH025</t>
+  </si>
+  <si>
+    <t>RFH026</t>
+  </si>
+  <si>
+    <t>RFH027</t>
+  </si>
+  <si>
+    <t>RFH028</t>
+  </si>
+  <si>
+    <t>RFH029</t>
+  </si>
+  <si>
+    <t>RFH030</t>
+  </si>
+  <si>
+    <t>O software do arduino deve Medir Temperatura</t>
+  </si>
+  <si>
+    <t>O software do site deve gerar graficos das temperaturas</t>
+  </si>
+  <si>
+    <t>O software do site deve ter uma tela de Login com um botao de login</t>
+  </si>
+  <si>
+    <t>O software do site deve ter uma tela para efetuar o cadastro do usuario e um botao para concluir o cadastro</t>
+  </si>
+  <si>
+    <t>O software do site deve ter uma tela para gerar receitas</t>
   </si>
 </sst>
 </file>
@@ -203,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -305,30 +491,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -368,15 +536,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,22 +1161,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1338,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289AB605-C255-4354-A5C1-14006B8F911F}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,68 +1518,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="A4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1426,10 +1591,10 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1443,384 +1608,420 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
-        <v>6</v>
+      <c r="E13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
+      <c r="A14" t="s">
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7</v>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
+      <c r="A15" t="s">
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
+      <c r="A16" t="s">
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3">
-        <v>9</v>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
+      <c r="A17" t="s">
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10</v>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
+      <c r="A18" t="s">
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>11</v>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
+      <c r="A19" t="s">
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>12</v>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3">
-        <v>13</v>
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3">
-        <v>14</v>
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="3">
-        <v>15</v>
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3">
-        <v>16</v>
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3">
-        <v>17</v>
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>18</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3">
-        <v>18</v>
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3">
-        <v>19</v>
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3">
-        <v>20</v>
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3">
-        <v>21</v>
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>22</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3">
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="3">
-        <v>23</v>
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3">
-        <v>24</v>
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3">
-        <v>25</v>
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="3">
-        <v>26</v>
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3">
-        <v>27</v>
+      <c r="D34" s="4"/>
+      <c r="E34" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3">
-        <v>28</v>
+      <c r="D35" s="4"/>
+      <c r="E35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="3">
-        <v>29</v>
+      <c r="D36" s="4"/>
+      <c r="E36" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="4">
-        <v>30</v>
+      <c r="D37" s="4"/>
+      <c r="E37" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
